--- a/check.xlsx
+++ b/check.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
   <si>
     <t>Модуль</t>
   </si>
@@ -75,29 +75,6 @@
         <color rgb="FFFF00FF"/>
       </rPr>
       <t>Главная</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>Переход на окно "</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF0000FF"/>
-      </rPr>
-      <t>Заявки</t>
     </r>
     <r>
       <rPr>
@@ -182,79 +159,7 @@
     <t>Взаимодействие с окнами Новости</t>
   </si>
   <si>
-    <t>Взаимодействие с окнами Заявки</t>
-  </si>
-  <si>
-    <t>Взаимодействие с окном Заявки</t>
-  </si>
-  <si>
-    <t>Переход ко всем Заявкам</t>
-  </si>
-  <si>
-    <t>Переход к выбранной Заявке</t>
-  </si>
-  <si>
-    <t>Переход к окну создания Заявок</t>
-  </si>
-  <si>
     <t>Обновление экрана свайпом</t>
-  </si>
-  <si>
-    <t>Заявки</t>
-  </si>
-  <si>
-    <t>Взаимодействие с Заявками</t>
-  </si>
-  <si>
-    <t>Добавление коментария</t>
-  </si>
-  <si>
-    <t>Изменение коментария</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изменение статуса </t>
-  </si>
-  <si>
-    <t>Переход к предыдущему экрану</t>
-  </si>
-  <si>
-    <t>Редактирование созданной заявки</t>
-  </si>
-  <si>
-    <t>Взаимодействие с фильтром показа</t>
-  </si>
-  <si>
-    <t>Видимость фильтра</t>
-  </si>
-  <si>
-    <t>Кнопка отмена</t>
-  </si>
-  <si>
-    <t>Фильтрация Открыта</t>
-  </si>
-  <si>
-    <t>Фильтрация В работе</t>
-  </si>
-  <si>
-    <t>Фильтрация Выполнена</t>
-  </si>
-  <si>
-    <t>Фильтрация Отменена</t>
-  </si>
-  <si>
-    <t>Создание новой заявки</t>
-  </si>
-  <si>
-    <t>Заполнение формы валидными данными и сохранение</t>
-  </si>
-  <si>
-    <t>Заполнение формы невалидными данными</t>
-  </si>
-  <si>
-    <t>Отмена создания новой Заявки</t>
   </si>
   <si>
     <t>Календарь</t>
@@ -270,6 +175,15 @@
   </si>
   <si>
     <t>Новости</t>
+  </si>
+  <si>
+    <t>Взаимодействие с фильтром показа</t>
+  </si>
+  <si>
+    <t>Видимость фильтра</t>
+  </si>
+  <si>
+    <t>Кнопка отмена</t>
   </si>
   <si>
     <t>Фильтрация категория</t>
@@ -293,7 +207,7 @@
     <t>Переход на панель управления и  видимость</t>
   </si>
   <si>
-    <t>Быстрый фильтр по заголовку</t>
+    <t>Быстрый фильтр по Алфавиту</t>
   </si>
   <si>
     <t>Взаимодействие с окнами news</t>
@@ -333,6 +247,9 @@
   </si>
   <si>
     <t>Кнопка назад</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
   <si>
     <t>Видимость лейбла компании разработчика, год</t>
@@ -397,11 +314,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color rgb="FF7F6000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -413,6 +325,11 @@
     </font>
     <font>
       <color rgb="FF00FF00"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFEA9999"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -449,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border/>
     <border>
       <left style="thin">
@@ -534,11 +451,6 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -547,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -591,29 +503,16 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -622,8 +521,11 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -1197,7 +1099,7 @@
     </row>
     <row r="10">
       <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1231,16 +1133,16 @@
       <c r="AA10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1266,16 +1168,18 @@
       <c r="AA11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="12"/>
+      <c r="A12" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="B12" s="15" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1301,18 +1205,18 @@
       <c r="AA12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>6</v>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
       </c>
-      <c r="C13" s="16"/>
       <c r="D13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1338,18 +1242,16 @@
       <c r="AA13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1375,16 +1277,18 @@
       <c r="AA14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="B15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1410,18 +1314,18 @@
       <c r="AA15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="19" t="s">
         <v>27</v>
       </c>
+      <c r="B16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="16"/>
       <c r="D16" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1447,16 +1351,18 @@
       <c r="AA16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="17" t="s">
-        <v>28</v>
+      <c r="A17" s="19" t="s">
+        <v>29</v>
       </c>
+      <c r="B17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="16"/>
       <c r="D17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1483,15 +1389,17 @@
     </row>
     <row r="18">
       <c r="A18" s="9"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1517,16 +1425,16 @@
       <c r="AA18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="12"/>
-      <c r="B19" s="6" t="s">
-        <v>30</v>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8" t="s">
+        <v>32</v>
       </c>
-      <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1552,18 +1460,16 @@
       <c r="AA19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="18" t="s">
-        <v>31</v>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1590,17 +1496,15 @@
     </row>
     <row r="21">
       <c r="A21" s="9"/>
-      <c r="B21" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="B21" s="12"/>
       <c r="C21" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1627,15 +1531,17 @@
     </row>
     <row r="22">
       <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="C22" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1662,15 +1568,15 @@
     </row>
     <row r="23">
       <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1697,15 +1603,15 @@
     </row>
     <row r="24">
       <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8" t="s">
-        <v>37</v>
+      <c r="B24" s="21" t="s">
+        <v>39</v>
       </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1732,15 +1638,15 @@
     </row>
     <row r="25">
       <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8" t="s">
-        <v>28</v>
+      <c r="B25" s="6" t="s">
+        <v>40</v>
       </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1767,15 +1673,17 @@
     </row>
     <row r="26">
       <c r="A26" s="9"/>
-      <c r="B26" s="12"/>
+      <c r="B26" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="C26" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1802,17 +1710,15 @@
     </row>
     <row r="27">
       <c r="A27" s="9"/>
-      <c r="B27" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="B27" s="12"/>
       <c r="C27" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1838,16 +1744,20 @@
       <c r="AA27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8" t="s">
-        <v>41</v>
+      <c r="A28" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1876,13 +1786,13 @@
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1909,15 +1819,15 @@
     </row>
     <row r="30">
       <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1943,16 +1853,16 @@
       <c r="AA30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8" t="s">
-        <v>44</v>
+      <c r="A31" s="12"/>
+      <c r="B31" s="6" t="s">
+        <v>48</v>
       </c>
+      <c r="C31" s="7"/>
       <c r="D31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1978,10 +1888,14 @@
       <c r="AA31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="9"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="C32" s="8" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>7</v>
@@ -2014,11 +1928,9 @@
     </row>
     <row r="33">
       <c r="A33" s="9"/>
-      <c r="B33" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="B33" s="9"/>
       <c r="C33" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>7</v>
@@ -2051,9 +1963,9 @@
     </row>
     <row r="34">
       <c r="A34" s="9"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="8" t="s">
-        <v>48</v>
+      <c r="B34" s="9"/>
+      <c r="C34" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>7</v>
@@ -2085,16 +1997,16 @@
       <c r="AA34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -2120,18 +2032,16 @@
       <c r="AA35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="22" t="s">
-        <v>50</v>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11" t="s">
+        <v>55</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="16"/>
       <c r="D36" s="8" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2158,17 +2068,17 @@
     </row>
     <row r="37">
       <c r="A37" s="24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>53</v>
+      <c r="B37" s="6" t="s">
+        <v>6</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2194,18 +2104,18 @@
       <c r="AA37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="24" t="s">
-        <v>54</v>
+      <c r="A38" s="9"/>
+      <c r="B38" s="22" t="s">
+        <v>57</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>6</v>
+      <c r="C38" s="11" t="s">
+        <v>58</v>
       </c>
-      <c r="C38" s="16"/>
       <c r="D38" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -2231,18 +2141,16 @@
       <c r="AA38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>40</v>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -2268,16 +2176,18 @@
       <c r="AA39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="8" t="s">
-        <v>41</v>
+      <c r="A40" s="22" t="s">
+        <v>60</v>
       </c>
+      <c r="B40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="7"/>
       <c r="D40" s="8" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -2303,16 +2213,16 @@
       <c r="AA40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="8" t="s">
-        <v>55</v>
+      <c r="A41" s="12"/>
+      <c r="B41" s="6" t="s">
+        <v>62</v>
       </c>
+      <c r="C41" s="7"/>
       <c r="D41" s="8" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -2338,16 +2248,18 @@
       <c r="AA41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="9"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="8" t="s">
-        <v>56</v>
+      <c r="A42" s="11" t="s">
+        <v>63</v>
       </c>
+      <c r="B42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="7"/>
       <c r="D42" s="8" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2373,18 +2285,18 @@
       <c r="AA42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10" t="s">
-        <v>57</v>
+      <c r="A43" s="11" t="s">
+        <v>65</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>58</v>
+      <c r="B43" s="25" t="s">
+        <v>66</v>
       </c>
+      <c r="C43" s="7"/>
       <c r="D43" s="8" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2410,17 +2322,11 @@
       <c r="AA43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="9"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -2445,17 +2351,11 @@
       <c r="AA44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="9"/>
-      <c r="B45" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -2480,17 +2380,11 @@
       <c r="AA45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="9"/>
-      <c r="B46" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -2515,19 +2409,11 @@
       <c r="AA46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -2552,17 +2438,11 @@
       <c r="AA47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="9"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -2587,21 +2467,11 @@
       <c r="AA48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2626,17 +2496,11 @@
       <c r="AA49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2661,17 +2525,11 @@
       <c r="AA50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="9"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -2696,17 +2554,11 @@
       <c r="AA51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="12"/>
-      <c r="B52" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -2731,21 +2583,11 @@
       <c r="AA52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -2770,17 +2612,11 @@
       <c r="AA53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -2805,17 +2641,11 @@
       <c r="AA54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -2840,17 +2670,11 @@
       <c r="AA55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -2875,17 +2699,11 @@
       <c r="AA56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -2910,19 +2728,11 @@
       <c r="AA57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -2947,19 +2757,11 @@
       <c r="AA58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="9"/>
-      <c r="B59" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -2984,17 +2786,11 @@
       <c r="AA59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -3019,19 +2815,11 @@
       <c r="AA60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -3056,17 +2844,11 @@
       <c r="AA61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="12"/>
-      <c r="B62" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -3091,19 +2873,11 @@
       <c r="AA62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -3128,19 +2902,11 @@
       <c r="AA63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -30018,663 +29784,47 @@
       <c r="Z990" s="4"/>
       <c r="AA990" s="4"/>
     </row>
-    <row r="991">
-      <c r="A991" s="4"/>
-      <c r="B991" s="4"/>
-      <c r="C991" s="4"/>
-      <c r="D991" s="4"/>
-      <c r="E991" s="4"/>
-      <c r="F991" s="4"/>
-      <c r="G991" s="4"/>
-      <c r="H991" s="4"/>
-      <c r="I991" s="4"/>
-      <c r="J991" s="4"/>
-      <c r="K991" s="4"/>
-      <c r="L991" s="4"/>
-      <c r="M991" s="4"/>
-      <c r="N991" s="4"/>
-      <c r="O991" s="4"/>
-      <c r="P991" s="4"/>
-      <c r="Q991" s="4"/>
-      <c r="R991" s="4"/>
-      <c r="S991" s="4"/>
-      <c r="T991" s="4"/>
-      <c r="U991" s="4"/>
-      <c r="V991" s="4"/>
-      <c r="W991" s="4"/>
-      <c r="X991" s="4"/>
-      <c r="Y991" s="4"/>
-      <c r="Z991" s="4"/>
-      <c r="AA991" s="4"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="4"/>
-      <c r="B992" s="4"/>
-      <c r="C992" s="4"/>
-      <c r="D992" s="4"/>
-      <c r="E992" s="4"/>
-      <c r="F992" s="4"/>
-      <c r="G992" s="4"/>
-      <c r="H992" s="4"/>
-      <c r="I992" s="4"/>
-      <c r="J992" s="4"/>
-      <c r="K992" s="4"/>
-      <c r="L992" s="4"/>
-      <c r="M992" s="4"/>
-      <c r="N992" s="4"/>
-      <c r="O992" s="4"/>
-      <c r="P992" s="4"/>
-      <c r="Q992" s="4"/>
-      <c r="R992" s="4"/>
-      <c r="S992" s="4"/>
-      <c r="T992" s="4"/>
-      <c r="U992" s="4"/>
-      <c r="V992" s="4"/>
-      <c r="W992" s="4"/>
-      <c r="X992" s="4"/>
-      <c r="Y992" s="4"/>
-      <c r="Z992" s="4"/>
-      <c r="AA992" s="4"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="4"/>
-      <c r="B993" s="4"/>
-      <c r="C993" s="4"/>
-      <c r="D993" s="4"/>
-      <c r="E993" s="4"/>
-      <c r="F993" s="4"/>
-      <c r="G993" s="4"/>
-      <c r="H993" s="4"/>
-      <c r="I993" s="4"/>
-      <c r="J993" s="4"/>
-      <c r="K993" s="4"/>
-      <c r="L993" s="4"/>
-      <c r="M993" s="4"/>
-      <c r="N993" s="4"/>
-      <c r="O993" s="4"/>
-      <c r="P993" s="4"/>
-      <c r="Q993" s="4"/>
-      <c r="R993" s="4"/>
-      <c r="S993" s="4"/>
-      <c r="T993" s="4"/>
-      <c r="U993" s="4"/>
-      <c r="V993" s="4"/>
-      <c r="W993" s="4"/>
-      <c r="X993" s="4"/>
-      <c r="Y993" s="4"/>
-      <c r="Z993" s="4"/>
-      <c r="AA993" s="4"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="4"/>
-      <c r="B994" s="4"/>
-      <c r="C994" s="4"/>
-      <c r="D994" s="4"/>
-      <c r="E994" s="4"/>
-      <c r="F994" s="4"/>
-      <c r="G994" s="4"/>
-      <c r="H994" s="4"/>
-      <c r="I994" s="4"/>
-      <c r="J994" s="4"/>
-      <c r="K994" s="4"/>
-      <c r="L994" s="4"/>
-      <c r="M994" s="4"/>
-      <c r="N994" s="4"/>
-      <c r="O994" s="4"/>
-      <c r="P994" s="4"/>
-      <c r="Q994" s="4"/>
-      <c r="R994" s="4"/>
-      <c r="S994" s="4"/>
-      <c r="T994" s="4"/>
-      <c r="U994" s="4"/>
-      <c r="V994" s="4"/>
-      <c r="W994" s="4"/>
-      <c r="X994" s="4"/>
-      <c r="Y994" s="4"/>
-      <c r="Z994" s="4"/>
-      <c r="AA994" s="4"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="4"/>
-      <c r="B995" s="4"/>
-      <c r="C995" s="4"/>
-      <c r="D995" s="4"/>
-      <c r="E995" s="4"/>
-      <c r="F995" s="4"/>
-      <c r="G995" s="4"/>
-      <c r="H995" s="4"/>
-      <c r="I995" s="4"/>
-      <c r="J995" s="4"/>
-      <c r="K995" s="4"/>
-      <c r="L995" s="4"/>
-      <c r="M995" s="4"/>
-      <c r="N995" s="4"/>
-      <c r="O995" s="4"/>
-      <c r="P995" s="4"/>
-      <c r="Q995" s="4"/>
-      <c r="R995" s="4"/>
-      <c r="S995" s="4"/>
-      <c r="T995" s="4"/>
-      <c r="U995" s="4"/>
-      <c r="V995" s="4"/>
-      <c r="W995" s="4"/>
-      <c r="X995" s="4"/>
-      <c r="Y995" s="4"/>
-      <c r="Z995" s="4"/>
-      <c r="AA995" s="4"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="4"/>
-      <c r="B996" s="4"/>
-      <c r="C996" s="4"/>
-      <c r="D996" s="4"/>
-      <c r="E996" s="4"/>
-      <c r="F996" s="4"/>
-      <c r="G996" s="4"/>
-      <c r="H996" s="4"/>
-      <c r="I996" s="4"/>
-      <c r="J996" s="4"/>
-      <c r="K996" s="4"/>
-      <c r="L996" s="4"/>
-      <c r="M996" s="4"/>
-      <c r="N996" s="4"/>
-      <c r="O996" s="4"/>
-      <c r="P996" s="4"/>
-      <c r="Q996" s="4"/>
-      <c r="R996" s="4"/>
-      <c r="S996" s="4"/>
-      <c r="T996" s="4"/>
-      <c r="U996" s="4"/>
-      <c r="V996" s="4"/>
-      <c r="W996" s="4"/>
-      <c r="X996" s="4"/>
-      <c r="Y996" s="4"/>
-      <c r="Z996" s="4"/>
-      <c r="AA996" s="4"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="4"/>
-      <c r="B997" s="4"/>
-      <c r="C997" s="4"/>
-      <c r="D997" s="4"/>
-      <c r="E997" s="4"/>
-      <c r="F997" s="4"/>
-      <c r="G997" s="4"/>
-      <c r="H997" s="4"/>
-      <c r="I997" s="4"/>
-      <c r="J997" s="4"/>
-      <c r="K997" s="4"/>
-      <c r="L997" s="4"/>
-      <c r="M997" s="4"/>
-      <c r="N997" s="4"/>
-      <c r="O997" s="4"/>
-      <c r="P997" s="4"/>
-      <c r="Q997" s="4"/>
-      <c r="R997" s="4"/>
-      <c r="S997" s="4"/>
-      <c r="T997" s="4"/>
-      <c r="U997" s="4"/>
-      <c r="V997" s="4"/>
-      <c r="W997" s="4"/>
-      <c r="X997" s="4"/>
-      <c r="Y997" s="4"/>
-      <c r="Z997" s="4"/>
-      <c r="AA997" s="4"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="4"/>
-      <c r="B998" s="4"/>
-      <c r="C998" s="4"/>
-      <c r="D998" s="4"/>
-      <c r="E998" s="4"/>
-      <c r="F998" s="4"/>
-      <c r="G998" s="4"/>
-      <c r="H998" s="4"/>
-      <c r="I998" s="4"/>
-      <c r="J998" s="4"/>
-      <c r="K998" s="4"/>
-      <c r="L998" s="4"/>
-      <c r="M998" s="4"/>
-      <c r="N998" s="4"/>
-      <c r="O998" s="4"/>
-      <c r="P998" s="4"/>
-      <c r="Q998" s="4"/>
-      <c r="R998" s="4"/>
-      <c r="S998" s="4"/>
-      <c r="T998" s="4"/>
-      <c r="U998" s="4"/>
-      <c r="V998" s="4"/>
-      <c r="W998" s="4"/>
-      <c r="X998" s="4"/>
-      <c r="Y998" s="4"/>
-      <c r="Z998" s="4"/>
-      <c r="AA998" s="4"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="4"/>
-      <c r="B999" s="4"/>
-      <c r="C999" s="4"/>
-      <c r="D999" s="4"/>
-      <c r="E999" s="4"/>
-      <c r="F999" s="4"/>
-      <c r="G999" s="4"/>
-      <c r="H999" s="4"/>
-      <c r="I999" s="4"/>
-      <c r="J999" s="4"/>
-      <c r="K999" s="4"/>
-      <c r="L999" s="4"/>
-      <c r="M999" s="4"/>
-      <c r="N999" s="4"/>
-      <c r="O999" s="4"/>
-      <c r="P999" s="4"/>
-      <c r="Q999" s="4"/>
-      <c r="R999" s="4"/>
-      <c r="S999" s="4"/>
-      <c r="T999" s="4"/>
-      <c r="U999" s="4"/>
-      <c r="V999" s="4"/>
-      <c r="W999" s="4"/>
-      <c r="X999" s="4"/>
-      <c r="Y999" s="4"/>
-      <c r="Z999" s="4"/>
-      <c r="AA999" s="4"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="4"/>
-      <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
-      <c r="E1000" s="4"/>
-      <c r="F1000" s="4"/>
-      <c r="G1000" s="4"/>
-      <c r="H1000" s="4"/>
-      <c r="I1000" s="4"/>
-      <c r="J1000" s="4"/>
-      <c r="K1000" s="4"/>
-      <c r="L1000" s="4"/>
-      <c r="M1000" s="4"/>
-      <c r="N1000" s="4"/>
-      <c r="O1000" s="4"/>
-      <c r="P1000" s="4"/>
-      <c r="Q1000" s="4"/>
-      <c r="R1000" s="4"/>
-      <c r="S1000" s="4"/>
-      <c r="T1000" s="4"/>
-      <c r="U1000" s="4"/>
-      <c r="V1000" s="4"/>
-      <c r="W1000" s="4"/>
-      <c r="X1000" s="4"/>
-      <c r="Y1000" s="4"/>
-      <c r="Z1000" s="4"/>
-      <c r="AA1000" s="4"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="4"/>
-      <c r="B1001" s="4"/>
-      <c r="C1001" s="4"/>
-      <c r="D1001" s="4"/>
-      <c r="E1001" s="4"/>
-      <c r="F1001" s="4"/>
-      <c r="G1001" s="4"/>
-      <c r="H1001" s="4"/>
-      <c r="I1001" s="4"/>
-      <c r="J1001" s="4"/>
-      <c r="K1001" s="4"/>
-      <c r="L1001" s="4"/>
-      <c r="M1001" s="4"/>
-      <c r="N1001" s="4"/>
-      <c r="O1001" s="4"/>
-      <c r="P1001" s="4"/>
-      <c r="Q1001" s="4"/>
-      <c r="R1001" s="4"/>
-      <c r="S1001" s="4"/>
-      <c r="T1001" s="4"/>
-      <c r="U1001" s="4"/>
-      <c r="V1001" s="4"/>
-      <c r="W1001" s="4"/>
-      <c r="X1001" s="4"/>
-      <c r="Y1001" s="4"/>
-      <c r="Z1001" s="4"/>
-      <c r="AA1001" s="4"/>
-    </row>
-    <row r="1002">
-      <c r="A1002" s="4"/>
-      <c r="B1002" s="4"/>
-      <c r="C1002" s="4"/>
-      <c r="D1002" s="4"/>
-      <c r="E1002" s="4"/>
-      <c r="F1002" s="4"/>
-      <c r="G1002" s="4"/>
-      <c r="H1002" s="4"/>
-      <c r="I1002" s="4"/>
-      <c r="J1002" s="4"/>
-      <c r="K1002" s="4"/>
-      <c r="L1002" s="4"/>
-      <c r="M1002" s="4"/>
-      <c r="N1002" s="4"/>
-      <c r="O1002" s="4"/>
-      <c r="P1002" s="4"/>
-      <c r="Q1002" s="4"/>
-      <c r="R1002" s="4"/>
-      <c r="S1002" s="4"/>
-      <c r="T1002" s="4"/>
-      <c r="U1002" s="4"/>
-      <c r="V1002" s="4"/>
-      <c r="W1002" s="4"/>
-      <c r="X1002" s="4"/>
-      <c r="Y1002" s="4"/>
-      <c r="Z1002" s="4"/>
-      <c r="AA1002" s="4"/>
-    </row>
-    <row r="1003">
-      <c r="A1003" s="4"/>
-      <c r="B1003" s="4"/>
-      <c r="C1003" s="4"/>
-      <c r="D1003" s="4"/>
-      <c r="E1003" s="4"/>
-      <c r="F1003" s="4"/>
-      <c r="G1003" s="4"/>
-      <c r="H1003" s="4"/>
-      <c r="I1003" s="4"/>
-      <c r="J1003" s="4"/>
-      <c r="K1003" s="4"/>
-      <c r="L1003" s="4"/>
-      <c r="M1003" s="4"/>
-      <c r="N1003" s="4"/>
-      <c r="O1003" s="4"/>
-      <c r="P1003" s="4"/>
-      <c r="Q1003" s="4"/>
-      <c r="R1003" s="4"/>
-      <c r="S1003" s="4"/>
-      <c r="T1003" s="4"/>
-      <c r="U1003" s="4"/>
-      <c r="V1003" s="4"/>
-      <c r="W1003" s="4"/>
-      <c r="X1003" s="4"/>
-      <c r="Y1003" s="4"/>
-      <c r="Z1003" s="4"/>
-      <c r="AA1003" s="4"/>
-    </row>
-    <row r="1004">
-      <c r="A1004" s="4"/>
-      <c r="B1004" s="4"/>
-      <c r="C1004" s="4"/>
-      <c r="D1004" s="4"/>
-      <c r="E1004" s="4"/>
-      <c r="F1004" s="4"/>
-      <c r="G1004" s="4"/>
-      <c r="H1004" s="4"/>
-      <c r="I1004" s="4"/>
-      <c r="J1004" s="4"/>
-      <c r="K1004" s="4"/>
-      <c r="L1004" s="4"/>
-      <c r="M1004" s="4"/>
-      <c r="N1004" s="4"/>
-      <c r="O1004" s="4"/>
-      <c r="P1004" s="4"/>
-      <c r="Q1004" s="4"/>
-      <c r="R1004" s="4"/>
-      <c r="S1004" s="4"/>
-      <c r="T1004" s="4"/>
-      <c r="U1004" s="4"/>
-      <c r="V1004" s="4"/>
-      <c r="W1004" s="4"/>
-      <c r="X1004" s="4"/>
-      <c r="Y1004" s="4"/>
-      <c r="Z1004" s="4"/>
-      <c r="AA1004" s="4"/>
-    </row>
-    <row r="1005">
-      <c r="A1005" s="4"/>
-      <c r="B1005" s="4"/>
-      <c r="C1005" s="4"/>
-      <c r="D1005" s="4"/>
-      <c r="E1005" s="4"/>
-      <c r="F1005" s="4"/>
-      <c r="G1005" s="4"/>
-      <c r="H1005" s="4"/>
-      <c r="I1005" s="4"/>
-      <c r="J1005" s="4"/>
-      <c r="K1005" s="4"/>
-      <c r="L1005" s="4"/>
-      <c r="M1005" s="4"/>
-      <c r="N1005" s="4"/>
-      <c r="O1005" s="4"/>
-      <c r="P1005" s="4"/>
-      <c r="Q1005" s="4"/>
-      <c r="R1005" s="4"/>
-      <c r="S1005" s="4"/>
-      <c r="T1005" s="4"/>
-      <c r="U1005" s="4"/>
-      <c r="V1005" s="4"/>
-      <c r="W1005" s="4"/>
-      <c r="X1005" s="4"/>
-      <c r="Y1005" s="4"/>
-      <c r="Z1005" s="4"/>
-      <c r="AA1005" s="4"/>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="4"/>
-      <c r="B1006" s="4"/>
-      <c r="C1006" s="4"/>
-      <c r="D1006" s="4"/>
-      <c r="E1006" s="4"/>
-      <c r="F1006" s="4"/>
-      <c r="G1006" s="4"/>
-      <c r="H1006" s="4"/>
-      <c r="I1006" s="4"/>
-      <c r="J1006" s="4"/>
-      <c r="K1006" s="4"/>
-      <c r="L1006" s="4"/>
-      <c r="M1006" s="4"/>
-      <c r="N1006" s="4"/>
-      <c r="O1006" s="4"/>
-      <c r="P1006" s="4"/>
-      <c r="Q1006" s="4"/>
-      <c r="R1006" s="4"/>
-      <c r="S1006" s="4"/>
-      <c r="T1006" s="4"/>
-      <c r="U1006" s="4"/>
-      <c r="V1006" s="4"/>
-      <c r="W1006" s="4"/>
-      <c r="X1006" s="4"/>
-      <c r="Y1006" s="4"/>
-      <c r="Z1006" s="4"/>
-      <c r="AA1006" s="4"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" s="4"/>
-      <c r="B1007" s="4"/>
-      <c r="C1007" s="4"/>
-      <c r="D1007" s="4"/>
-      <c r="E1007" s="4"/>
-      <c r="F1007" s="4"/>
-      <c r="G1007" s="4"/>
-      <c r="H1007" s="4"/>
-      <c r="I1007" s="4"/>
-      <c r="J1007" s="4"/>
-      <c r="K1007" s="4"/>
-      <c r="L1007" s="4"/>
-      <c r="M1007" s="4"/>
-      <c r="N1007" s="4"/>
-      <c r="O1007" s="4"/>
-      <c r="P1007" s="4"/>
-      <c r="Q1007" s="4"/>
-      <c r="R1007" s="4"/>
-      <c r="S1007" s="4"/>
-      <c r="T1007" s="4"/>
-      <c r="U1007" s="4"/>
-      <c r="V1007" s="4"/>
-      <c r="W1007" s="4"/>
-      <c r="X1007" s="4"/>
-      <c r="Y1007" s="4"/>
-      <c r="Z1007" s="4"/>
-      <c r="AA1007" s="4"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" s="4"/>
-      <c r="B1008" s="4"/>
-      <c r="C1008" s="4"/>
-      <c r="D1008" s="4"/>
-      <c r="E1008" s="4"/>
-      <c r="F1008" s="4"/>
-      <c r="G1008" s="4"/>
-      <c r="H1008" s="4"/>
-      <c r="I1008" s="4"/>
-      <c r="J1008" s="4"/>
-      <c r="K1008" s="4"/>
-      <c r="L1008" s="4"/>
-      <c r="M1008" s="4"/>
-      <c r="N1008" s="4"/>
-      <c r="O1008" s="4"/>
-      <c r="P1008" s="4"/>
-      <c r="Q1008" s="4"/>
-      <c r="R1008" s="4"/>
-      <c r="S1008" s="4"/>
-      <c r="T1008" s="4"/>
-      <c r="U1008" s="4"/>
-      <c r="V1008" s="4"/>
-      <c r="W1008" s="4"/>
-      <c r="X1008" s="4"/>
-      <c r="Y1008" s="4"/>
-      <c r="Z1008" s="4"/>
-      <c r="AA1008" s="4"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" s="4"/>
-      <c r="B1009" s="4"/>
-      <c r="C1009" s="4"/>
-      <c r="D1009" s="4"/>
-      <c r="E1009" s="4"/>
-      <c r="F1009" s="4"/>
-      <c r="G1009" s="4"/>
-      <c r="H1009" s="4"/>
-      <c r="I1009" s="4"/>
-      <c r="J1009" s="4"/>
-      <c r="K1009" s="4"/>
-      <c r="L1009" s="4"/>
-      <c r="M1009" s="4"/>
-      <c r="N1009" s="4"/>
-      <c r="O1009" s="4"/>
-      <c r="P1009" s="4"/>
-      <c r="Q1009" s="4"/>
-      <c r="R1009" s="4"/>
-      <c r="S1009" s="4"/>
-      <c r="T1009" s="4"/>
-      <c r="U1009" s="4"/>
-      <c r="V1009" s="4"/>
-      <c r="W1009" s="4"/>
-      <c r="X1009" s="4"/>
-      <c r="Y1009" s="4"/>
-      <c r="Z1009" s="4"/>
-      <c r="AA1009" s="4"/>
-    </row>
-    <row r="1010">
-      <c r="A1010" s="4"/>
-      <c r="B1010" s="4"/>
-      <c r="C1010" s="4"/>
-      <c r="D1010" s="4"/>
-      <c r="E1010" s="4"/>
-      <c r="F1010" s="4"/>
-      <c r="G1010" s="4"/>
-      <c r="H1010" s="4"/>
-      <c r="I1010" s="4"/>
-      <c r="J1010" s="4"/>
-      <c r="K1010" s="4"/>
-      <c r="L1010" s="4"/>
-      <c r="M1010" s="4"/>
-      <c r="N1010" s="4"/>
-      <c r="O1010" s="4"/>
-      <c r="P1010" s="4"/>
-      <c r="Q1010" s="4"/>
-      <c r="R1010" s="4"/>
-      <c r="S1010" s="4"/>
-      <c r="T1010" s="4"/>
-      <c r="U1010" s="4"/>
-      <c r="V1010" s="4"/>
-      <c r="W1010" s="4"/>
-      <c r="X1010" s="4"/>
-      <c r="Y1010" s="4"/>
-      <c r="Z1010" s="4"/>
-      <c r="AA1010" s="4"/>
-    </row>
-    <row r="1011">
-      <c r="A1011" s="4"/>
-      <c r="B1011" s="4"/>
-      <c r="C1011" s="4"/>
-      <c r="D1011" s="4"/>
-      <c r="E1011" s="4"/>
-      <c r="F1011" s="4"/>
-      <c r="G1011" s="4"/>
-      <c r="H1011" s="4"/>
-      <c r="I1011" s="4"/>
-      <c r="J1011" s="4"/>
-      <c r="K1011" s="4"/>
-      <c r="L1011" s="4"/>
-      <c r="M1011" s="4"/>
-      <c r="N1011" s="4"/>
-      <c r="O1011" s="4"/>
-      <c r="P1011" s="4"/>
-      <c r="Q1011" s="4"/>
-      <c r="R1011" s="4"/>
-      <c r="S1011" s="4"/>
-      <c r="T1011" s="4"/>
-      <c r="U1011" s="4"/>
-      <c r="V1011" s="4"/>
-      <c r="W1011" s="4"/>
-      <c r="X1011" s="4"/>
-      <c r="Y1011" s="4"/>
-      <c r="Z1011" s="4"/>
-      <c r="AA1011" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A35"/>
-    <mergeCell ref="A38:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A62"/>
+  <mergeCells count="33">
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E64">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E43">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D64">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D43">
       <formula1>"Uncheck,Check "</formula1>
     </dataValidation>
   </dataValidations>
@@ -30698,115 +29848,115 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
-        <v>88</v>
+      <c r="A1" s="26" t="s">
+        <v>67</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3">
       <c r="A3" s="9"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="4">
       <c r="A4" s="9"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
     </row>
     <row r="5">
       <c r="A5" s="12"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="6">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7">
       <c r="A7" s="9"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
     </row>
     <row r="8">
       <c r="A8" s="9"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
     </row>
     <row r="9">
       <c r="A9" s="9"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
     </row>
     <row r="10">
       <c r="A10" s="12"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
     </row>
     <row r="12">
       <c r="A12" s="9"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
     </row>
     <row r="13">
       <c r="A13" s="9"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14">
       <c r="A14" s="9"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="15">
       <c r="A15" s="12"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
     </row>
     <row r="16">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
     </row>
     <row r="18">
       <c r="A18" s="9"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
     </row>
     <row r="19">
       <c r="A19" s="9"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
     </row>
     <row r="20">
       <c r="A20" s="12"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="21">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
